--- a/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,75</t>
+          <t>-15,19; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,4</t>
+          <t>-25,2; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,17</t>
+          <t>-24,1; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,88</t>
+          <t>-11,99; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,29</t>
+          <t>-12,76; -1,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>-4,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,35</t>
+          <t>-15,19; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 6,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,06</t>
+          <t>-25,2; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 4,48</t>
+          <t>-24,1; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 3,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,37</t>
+          <t>-11,99; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,72</t>
+          <t>-12,76; -1,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,67</t>
+          <t>-3,54; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 2,13</t>
+          <t>-1,05; 5,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 5,67</t>
+          <t>-5,6; 6,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,18</t>
+          <t>0,96; 7,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,24</t>
+          <t>-3,33; 4,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -0,26</t>
+          <t>-14,01; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,98</t>
+          <t>-0,67; 4,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,17</t>
+          <t>-1,23; 4,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 0,38</t>
+          <t>-6,12; 3,45</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,3</t>
+          <t>-3,71; 4,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 2,33</t>
+          <t>-1,13; 6,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 6,13</t>
+          <t>-5,95; 6,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,77</t>
+          <t>0,99; 8,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,81</t>
+          <t>-3,47; 4,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -0,32</t>
+          <t>-14,74; 3,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,35</t>
+          <t>-0,7; 5,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,36</t>
+          <t>-1,26; 4,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 0,4</t>
+          <t>-6,52; 3,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 6,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 0,0</t>
+          <t>-1,16; 8,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; 6,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-2,91; 7,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 0,0</t>
+          <t>-1,42; 8,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,99; -1,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,0</t>
+          <t>-2,0; 5,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -1,09</t>
+          <t>-0,01; 6,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,73; 0,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-8,09%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 7,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 0,0</t>
+          <t>-1,12; 9,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; 7,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-3,07; 8,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 0,0</t>
+          <t>-1,4; 10,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,19; -2,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,0</t>
+          <t>-2,14; 5,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -1,09</t>
+          <t>0,0; 7,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,27; 0,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,08</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-6,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,21</t>
+          <t>-2,84; 5,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,21</t>
+          <t>-7,9; 2,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 6,85</t>
+          <t>-14,52; 5,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,23</t>
+          <t>-3,59; 5,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,68</t>
+          <t>-3,55; 5,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-39,99; -1,79</t>
+          <t>-26,05; -0,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,1</t>
+          <t>-2,26; 3,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,79</t>
+          <t>-3,99; 2,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 0,52</t>
+          <t>-14,37; 0,38</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-11,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-7,01%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,01</t>
+          <t>-3,0; 6,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,22</t>
+          <t>-8,35; 2,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 7,65</t>
+          <t>-15,36; 6,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 8,5</t>
+          <t>-3,76; 5,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 10,0</t>
+          <t>-3,72; 5,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,19; -2,07</t>
+          <t>-28,01; -0,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,66</t>
+          <t>-2,42; 4,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>-4,27; 2,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 0,63</t>
+          <t>-15,55; 0,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 0,0</t>
+          <t>-14,76; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-27,09; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 0,0</t>
+          <t>-27,33; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,0</t>
+          <t>-12,84; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -1,09</t>
+          <t>-14,19; -1,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 0,0</t>
+          <t>-14,76; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-27,09; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 0,0</t>
+          <t>-27,33; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,0</t>
+          <t>-12,84; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -1,09</t>
+          <t>-14,19; -1,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,31</t>
+          <t>1,4; 10,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,77</t>
+          <t>-1,67; 8,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 9,66</t>
+          <t>-9,51; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 3,57</t>
+          <t>-7,02; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,07</t>
+          <t>-8,07; 2,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 4,97</t>
+          <t>-27,01; 4,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,6</t>
+          <t>-1,29; 5,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,33</t>
+          <t>-3,28; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 5,31</t>
+          <t>-10,43; 5,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 11,6</t>
+          <t>1,47; 11,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,02</t>
+          <t>-1,68; 10,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 10,8</t>
+          <t>-9,88; 10,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 3,86</t>
+          <t>-7,26; 3,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 3,22</t>
+          <t>-8,25; 2,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 5,23</t>
+          <t>-28,02; 4,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,1</t>
+          <t>-1,33; 5,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,78</t>
+          <t>-3,42; 4,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 5,63</t>
+          <t>-11,0; 5,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,52</t>
+          <t>-3,44; 4,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,75</t>
+          <t>-1,38; 6,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,28</t>
+          <t>-6,99; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,4</t>
+          <t>0,6; 7,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,17</t>
+          <t>-3,69; 3,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 3,15</t>
+          <t>-15,9; 3,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,88</t>
+          <t>-0,56; 4,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,29</t>
+          <t>-1,33; 4,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,45</t>
+          <t>-5,96; 3,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,91</t>
+          <t>-3,61; 5,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,35</t>
+          <t>-1,44; 6,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 6,82</t>
+          <t>-7,25; 6,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,06</t>
+          <t>0,64; 7,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 4,48</t>
+          <t>-3,85; 4,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 3,52</t>
+          <t>-16,73; 3,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,37</t>
+          <t>-0,59; 5,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,72</t>
+          <t>-1,39; 4,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,71</t>
+          <t>-6,32; 4,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,21</t>
+          <t>-3,58; 5,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,21</t>
+          <t>-0,63; 8,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 6,85</t>
+          <t>-11,88; 7,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,23</t>
+          <t>-3,27; 6,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,68</t>
+          <t>-1,35; 8,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,99; -1,79</t>
+          <t>-37,69; -0,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,1</t>
+          <t>-2,35; 5,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,79</t>
+          <t>-0,03; 6,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 0,52</t>
+          <t>-20,7; 0,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,01</t>
+          <t>-3,78; 5,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,22</t>
+          <t>-0,67; 9,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 7,65</t>
+          <t>-12,71; 8,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 8,5</t>
+          <t>-3,46; 7,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 10,0</t>
+          <t>-1,43; 9,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,19; -2,07</t>
+          <t>-41,75; -0,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,66</t>
+          <t>-2,5; 5,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>-0,02; 7,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 0,63</t>
+          <t>-22,28; 0,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,67</t>
+          <t>-2,6; 5,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 2,13</t>
+          <t>-7,79; 1,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 5,67</t>
+          <t>-13,31; 5,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,18</t>
+          <t>-3,69; 4,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,24</t>
+          <t>-3,36; 4,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -0,26</t>
+          <t>-24,25; -0,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,98</t>
+          <t>-1,91; 3,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,17</t>
+          <t>-4,24; 2,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 0,38</t>
+          <t>-15,04; -0,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,3</t>
+          <t>-2,78; 6,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 2,33</t>
+          <t>-8,28; 1,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 6,13</t>
+          <t>-14,29; 5,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,77</t>
+          <t>-3,89; 5,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,81</t>
+          <t>-3,57; 4,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -0,32</t>
+          <t>-26,09; 0,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,35</t>
+          <t>-2,03; 4,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,36</t>
+          <t>-4,5; 2,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 0,4</t>
+          <t>-16,04; -0,38</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,8</t>
+          <t>-0,3; 3,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,24</t>
+          <t>-0,9; 3,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,06</t>
+          <t>-3,86; 4,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,26</t>
+          <t>-1,05; 3,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,45</t>
+          <t>-1,73; 2,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -3,13</t>
+          <t>-17,04; -3,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,97</t>
+          <t>-0,11; 2,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,32</t>
+          <t>-0,7; 2,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,88; -0,15</t>
+          <t>-8,01; -0,56</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,12</t>
+          <t>-0,32; 4,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,53</t>
+          <t>-0,95; 3,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,42</t>
+          <t>-4,08; 4,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,53</t>
+          <t>-1,1; 3,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,65</t>
+          <t>-1,84; 2,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -3,35</t>
+          <t>-18,38; -3,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,22</t>
+          <t>-0,11; 3,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,51</t>
+          <t>-0,74; 2,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -0,23</t>
+          <t>-8,53; -0,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 0,0</t>
+          <t>-14,66; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 0,0</t>
+          <t>-26,05; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 0,0</t>
+          <t>-33,64; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 0,0</t>
+          <t>-12,43; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -1,13</t>
+          <t>-13,34; -1,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 0,0</t>
+          <t>-14,66; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 0,0</t>
+          <t>-26,05; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 0,0</t>
+          <t>-33,64; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 0,0</t>
+          <t>-12,43; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -1,13</t>
+          <t>-13,34; -1,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 10,33</t>
+          <t>1,0; 10,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,86</t>
+          <t>-1,8; 8,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 9,58</t>
+          <t>-6,93; 9,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 3,37</t>
+          <t>-6,85; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 2,37</t>
+          <t>-7,78; 3,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 4,28</t>
+          <t>-21,14; 4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,48</t>
+          <t>-1,5; 5,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,16</t>
+          <t>-3,47; 4,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 5,11</t>
+          <t>-9,63; 4,88</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,6</t>
+          <t>1,04; 11,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 10,1</t>
+          <t>-1,84; 9,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 10,81</t>
+          <t>-6,99; 10,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,57</t>
+          <t>-7,12; 3,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 2,55</t>
+          <t>-8,16; 3,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 4,47</t>
+          <t>-21,72; 4,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,99</t>
+          <t>-1,58; 6,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,49</t>
+          <t>-3,59; 4,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 5,49</t>
+          <t>-10,07; 5,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,63</t>
+          <t>-3,57; 4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,24</t>
+          <t>-1,15; 5,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,13</t>
+          <t>-5,75; 6,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,25</t>
+          <t>0,73; 7,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,76</t>
+          <t>-3,7; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 3,44</t>
+          <t>-15,63; 2,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,76</t>
+          <t>-0,47; 4,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,25</t>
+          <t>-1,26; 4,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 3,9</t>
+          <t>-6,55; 3,42</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,03</t>
+          <t>-3,73; 5,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,9</t>
+          <t>-1,19; 6,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 6,63</t>
+          <t>-5,94; 7,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,95</t>
+          <t>0,84; 8,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,09</t>
+          <t>-3,84; 4,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 3,73</t>
+          <t>-16,51; 3,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,22</t>
+          <t>-0,49; 5,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,56</t>
+          <t>-1,31; 4,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,2</t>
+          <t>-6,91; 3,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,31</t>
+          <t>-3,97; 5,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 8,28</t>
+          <t>-0,74; 8,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 7,33</t>
+          <t>-13,43; 6,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 6,76</t>
+          <t>-3,31; 6,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 8,57</t>
+          <t>-1,05; 8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -0,53</t>
+          <t>-40,32; -1,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,11</t>
+          <t>-2,13; 5,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,43</t>
+          <t>0,1; 6,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 0,62</t>
+          <t>-20,59; 0,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,96</t>
+          <t>-4,2; 6,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,41</t>
+          <t>-0,81; 9,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 8,15</t>
+          <t>-14,11; 7,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 7,66</t>
+          <t>-3,5; 7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 9,8</t>
+          <t>-1,13; 9,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,75; -0,7</t>
+          <t>-43,86; -1,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 5,77</t>
+          <t>-2,28; 5,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,25</t>
+          <t>0,14; 7,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 0,71</t>
+          <t>-22,62; 1,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 5,75</t>
+          <t>-3,08; 5,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,75</t>
+          <t>-7,69; 1,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 5,36</t>
+          <t>-14,6; 5,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,72</t>
+          <t>-3,87; 4,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,42</t>
+          <t>-3,9; 4,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -0,02</t>
+          <t>-24,65; -0,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,82</t>
+          <t>-2,08; 4,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,18</t>
+          <t>-4,37; 2,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -0,36</t>
+          <t>-15,6; -0,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,36</t>
+          <t>-3,28; 6,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,96</t>
+          <t>-8,22; 2,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 5,88</t>
+          <t>-15,65; 5,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,23</t>
+          <t>-4,05; 5,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,84</t>
+          <t>-4,08; 5,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 0,06</t>
+          <t>-26,13; -0,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,21</t>
+          <t>-2,2; 4,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,38</t>
+          <t>-4,65; 2,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -0,38</t>
+          <t>-16,78; -0,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,73</t>
+          <t>-0,59; 3,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,29</t>
+          <t>-1,09; 3,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,33</t>
+          <t>-3,57; 4,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,31</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,72</t>
+          <t>-1,88; 2,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -3,24</t>
+          <t>-18,44; -3,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,87</t>
+          <t>-0,07; 2,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,33</t>
+          <t>-0,86; 2,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -0,56</t>
+          <t>-8,33; -0,31</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,07</t>
+          <t>-0,63; 4,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,57</t>
+          <t>-1,16; 3,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,65</t>
+          <t>-3,83; 4,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,62</t>
+          <t>-1,14; 3,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,95</t>
+          <t>-1,97; 3,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -3,52</t>
+          <t>-20,11; -3,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,12</t>
+          <t>-0,06; 3,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,53</t>
+          <t>-0,91; 2,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -0,6</t>
+          <t>-8,91; -0,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 0,0</t>
+          <t>-7,47; 1,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 3,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 0,0</t>
+          <t>1,1; 8,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 0,0</t>
+          <t>-2,46; 6,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 8,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 0,0</t>
+          <t>-1,74; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -1,16</t>
+          <t>-3,87; 2,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 4,28</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 0,0</t>
+          <t>-7,66; 1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,95; 3,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 0,0</t>
+          <t>1,25; 9,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 0,0</t>
+          <t>-2,54; 7,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 8,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 0,0</t>
+          <t>-1,8; 4,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -1,16</t>
+          <t>-3,97; 3,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 4,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 10,24</t>
+          <t>0,96; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,58</t>
+          <t>-3,33; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 9,38</t>
+          <t>-13,99; 3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,49</t>
+          <t>-3,54; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,21</t>
+          <t>-1,05; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 4,34</t>
+          <t>-5,24; 6,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 5,6</t>
+          <t>-0,67; 4,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 4,12</t>
+          <t>-1,23; 4,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,88</t>
+          <t>-5,81; 3,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-0,15%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,51</t>
+          <t>0,99; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 9,78</t>
+          <t>-3,47; 4,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 10,43</t>
+          <t>-14,82; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,69</t>
+          <t>-3,71; 4,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 3,41</t>
+          <t>-1,13; 6,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 4,5</t>
+          <t>-5,5; 6,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,07</t>
+          <t>-0,7; 5,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,49</t>
+          <t>-1,26; 4,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 5,23</t>
+          <t>-6,19; 3,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-18,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-8,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,56</t>
+          <t>-2,91; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,92</t>
+          <t>-1,42; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 6,32</t>
+          <t>-46,41; -2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,33</t>
+          <t>-4,08; 6,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,41</t>
+          <t>-1,16; 8,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 2,78</t>
+          <t>-14,91; 6,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,62</t>
+          <t>-2,0; 5,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,11</t>
+          <t>-0,01; 6,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,42</t>
+          <t>-25,48; 0,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-9,46%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,01</t>
+          <t>-3,07; 8,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,58</t>
+          <t>-1,4; 10,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 7,01</t>
+          <t>-50,53; -2,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,01</t>
+          <t>-4,31; 7,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,81</t>
+          <t>-1,12; 9,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 3,04</t>
+          <t>-15,54; 7,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,04</t>
+          <t>-2,14; 5,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,47</t>
+          <t>0,0; 7,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 3,69</t>
+          <t>-27,35; 0,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,08</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-6,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,87</t>
+          <t>-3,59; 5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 8,24</t>
+          <t>-3,55; 5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 6,95</t>
+          <t>-25,62; -0,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 6,7</t>
+          <t>-2,84; 5,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 8,4</t>
+          <t>-7,9; 2,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -1,77</t>
+          <t>-14,88; 5,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 5,07</t>
+          <t>-2,26; 3,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,91</t>
+          <t>-3,99; 2,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 0,99</t>
+          <t>-14,35; 0,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-11,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 6,64</t>
+          <t>-3,76; 5,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 9,23</t>
+          <t>-3,72; 5,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,79</t>
+          <t>-27,33; -0,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,6</t>
+          <t>-3,0; 6,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,58</t>
+          <t>-8,35; 2,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,86; -1,94</t>
+          <t>-15,78; 6,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 5,64</t>
+          <t>-2,42; 4,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,71</t>
+          <t>-4,27; 2,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 1,04</t>
+          <t>-15,12; 0,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-3,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,57</t>
+          <t>-0,87; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,95</t>
+          <t>-1,84; 2,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 5,03</t>
+          <t>-18,9; -3,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,79</t>
+          <t>-0,52; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,82</t>
+          <t>-1,08; 3,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -0,75</t>
+          <t>-3,71; 4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,01</t>
+          <t>-0,2; 2,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,08</t>
+          <t>-0,82; 2,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -0,06</t>
+          <t>-8,62; -0,19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,21</t>
+          <t>-0,9; 3,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 2,14</t>
+          <t>-1,93; 2,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 5,44</t>
+          <t>-20,09; -4,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,19</t>
+          <t>-0,55; 4,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,3</t>
+          <t>-1,15; 3,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -0,87</t>
+          <t>-3,92; 4,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,41</t>
+          <t>-0,21; 3,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,23</t>
+          <t>-0,86; 2,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -0,1</t>
+          <t>-9,25; -0,22</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-8,9</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 3,72</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 3,24</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 4,04</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 3,28</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 2,77</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; -3,18</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 2,92</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 2,14</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; -0,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-9,51%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 4,07</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 3,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 4,38</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 3,55</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 3,01</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-20,11; -3,48</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 3,18</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 2,32</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; -0,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
